--- a/biology/Médecine/Variant_Lambda_du_SARS-CoV-2/Variant_Lambda_du_SARS-CoV-2.xlsx
+++ b/biology/Médecine/Variant_Lambda_du_SARS-CoV-2/Variant_Lambda_du_SARS-CoV-2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le variant lambda, également connu sous le nom de  C.37, est un variant du SARS-CoV-2,  virus à l'origine de la Covid-19[1]. Il a été détecté pour la première fois au Pérou en décembre 2020.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le variant lambda, également connu sous le nom de  C.37, est un variant du SARS-CoV-2,  virus à l'origine de la Covid-19. Il a été détecté pour la première fois au Pérou en décembre 2020.
 L'Organisation mondiale de la santé (OMS) l'a classé variant d'intérêt le 14 juin 2021.
 </t>
         </is>
@@ -512,10 +524,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les premiers échantillons du variant Lambda ont été détectés au Pérou en décembre 2020 et en avril 2021, plus de 90 % des nouveaux cas de COVID-19 au Pérou provenaient du nouveau variant[1],[2].
-En juin 2021, le variant Lambda a commencé à se répandre en Amérique du Sud et a été détecté dans vingt-neuf pays au total, notamment en Argentine, au Chili et en Équateur[2],[3]. L'OMS a désigné le variant Lambda comme un « variant d'intérêt » le 14 juin 2021[1]. À la mi-juin 2021, 90,6 % des nouveaux cas de COVID-19 à Arequipa et 78,1 % des nouveaux cas à Cusco étaient le variant Lambda selon le ministère péruvien de la Santé[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les premiers échantillons du variant Lambda ont été détectés au Pérou en décembre 2020 et en avril 2021, plus de 90 % des nouveaux cas de COVID-19 au Pérou provenaient du nouveau variant,.
+En juin 2021, le variant Lambda a commencé à se répandre en Amérique du Sud et a été détecté dans vingt-neuf pays au total, notamment en Argentine, au Chili et en Équateur,. L'OMS a désigné le variant Lambda comme un « variant d'intérêt » le 14 juin 2021. À la mi-juin 2021, 90,6 % des nouveaux cas de COVID-19 à Arequipa et 78,1 % des nouveaux cas à Cusco étaient le variant Lambda selon le ministère péruvien de la Santé.
 </t>
         </is>
       </c>
@@ -544,10 +558,12 @@
           <t>Mutations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le génome du variant Lambda présente les mutations d'acides aminés suivantes, toutes présentes dans le code de la protéine de pointe du virus : G75V, T761, Δ246-252, L452Q, F490S, D614G et T859N[5].  Il s'agit de mutations faux-sens, c'est-à-dire non silencieuses, induisant un changement fonctionnel. 
+Le génome du variant Lambda présente les mutations d'acides aminés suivantes, toutes présentes dans le code de la protéine de pointe du virus : G75V, T761, Δ246-252, L452Q, F490S, D614G et T859N.  Il s'agit de mutations faux-sens, c'est-à-dire non silencieuses, induisant un changement fonctionnel. 
 			Mutations d'acides aminés de la variante SARS-CoV-2 Lambda tracées sur une carte du génome du SARS-CoV-2 en mettant l'accent sur le pic.
 </t>
         </is>
@@ -577,7 +593,9 @@
           <t>Statistiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est à noter qu'étant donné que la majorité des pays ont des capacités de détection et de séquençage du variant insuffisantes, y compris dans les pays développés, les statistiques sont très probablement sous-estimées.
 </t>
